--- a/results/ejection_fraction_patient_metrics_watershed.xlsx
+++ b/results/ejection_fraction_patient_metrics_watershed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkkad\Desktop\github_repos\heart_cardiac_mri_image_processing\edge_detection_and_contours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3E89FC-F4C2-47EB-9966-0BAFA8E795C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71905AA-CC2A-4FDF-BDE0-B3A87EB271A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,10 +43,10 @@
     <t>End-Systolic Volume (mL)</t>
   </si>
   <si>
-    <t>Surface Area at ED (cm²)</t>
-  </si>
-  <si>
-    <t>Surface Area at ES (cm²)</t>
+    <t>Surface Area at ED (mm²)</t>
+  </si>
+  <si>
+    <t>Surface Area at ES (mm²)</t>
   </si>
   <si>
     <t>LV Diameter at ED (mm)</t>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,8 +571,8 @@
     <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -626,25 +626,25 @@
         <v>53</v>
       </c>
       <c r="E2">
-        <v>14.779672131903981</v>
+        <v>14.710840282716839</v>
       </c>
       <c r="F2">
-        <v>494.99513884172848</v>
+        <v>48.657838683634473</v>
       </c>
       <c r="G2">
-        <v>421.83648025205821</v>
+        <v>41.499861749862987</v>
       </c>
       <c r="H2">
-        <v>202.0210992069525</v>
+        <v>183.474812565908</v>
       </c>
       <c r="I2">
-        <v>208.7745880641298</v>
+        <v>151.6529003156046</v>
       </c>
       <c r="J2">
-        <v>98.144832283099262</v>
+        <v>45.29511820004209</v>
       </c>
       <c r="K2">
-        <v>93.049741460467629</v>
+        <v>42.955226086981433</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -661,25 +661,25 @@
         <v>53</v>
       </c>
       <c r="E3">
-        <v>56.617356253744489</v>
+        <v>31.45719518910245</v>
       </c>
       <c r="F3">
-        <v>564.01888285375094</v>
+        <v>84.97698826066636</v>
       </c>
       <c r="G3">
-        <v>244.68630261005299</v>
+        <v>58.245611197687857</v>
       </c>
       <c r="H3">
-        <v>394.57937319428669</v>
+        <v>273.2082318969085</v>
       </c>
       <c r="I3">
-        <v>246.6947865455181</v>
+        <v>184.46264516474301</v>
       </c>
       <c r="J3">
-        <v>102.50971055145099</v>
+        <v>54.546585622630481</v>
       </c>
       <c r="K3">
-        <v>77.601540981065085</v>
+        <v>48.093700537285578</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -696,25 +696,25 @@
         <v>53</v>
       </c>
       <c r="E4">
-        <v>22.218332056660909</v>
+        <v>23.582779487696591</v>
       </c>
       <c r="F4">
-        <v>151.85334233765701</v>
+        <v>30.49987174723854</v>
       </c>
       <c r="G4">
-        <v>118.11406249793831</v>
+        <v>23.307154249057</v>
       </c>
       <c r="H4">
-        <v>187.1004343655907</v>
+        <v>146.85691469092589</v>
       </c>
       <c r="I4">
-        <v>138.1451294801173</v>
+        <v>123.3520290524831</v>
       </c>
       <c r="J4">
-        <v>66.192468535946176</v>
+        <v>38.764405710538213</v>
       </c>
       <c r="K4">
-        <v>60.874348784433757</v>
+        <v>35.440258097554491</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -731,25 +731,25 @@
         <v>53</v>
       </c>
       <c r="E5">
-        <v>53.521992687514711</v>
+        <v>52.650680822421123</v>
       </c>
       <c r="F5">
-        <v>340.78946685511522</v>
+        <v>38.408060731270538</v>
       </c>
       <c r="G5">
-        <v>158.39215332510011</v>
+        <v>18.185955265567621</v>
       </c>
       <c r="H5">
-        <v>166.39722337825131</v>
+        <v>177.510512114655</v>
       </c>
       <c r="I5">
-        <v>184.85117267700241</v>
+        <v>96.705961012566931</v>
       </c>
       <c r="J5">
-        <v>86.662094331395636</v>
+        <v>41.860838097896767</v>
       </c>
       <c r="K5">
-        <v>67.129232251404829</v>
+        <v>32.627151938808353</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -766,25 +766,25 @@
         <v>53</v>
       </c>
       <c r="E6">
-        <v>56.889869364581273</v>
+        <v>21.9256125960598</v>
       </c>
       <c r="F6">
-        <v>620.34705369667313</v>
+        <v>35.557916808968017</v>
       </c>
       <c r="G6">
-        <v>267.43242524160689</v>
+        <v>27.761625722204471</v>
       </c>
       <c r="H6">
-        <v>203.49172146720039</v>
+        <v>138.84737926579911</v>
       </c>
       <c r="I6">
-        <v>191.9969355965242</v>
+        <v>115.3244971721863</v>
       </c>
       <c r="J6">
-        <v>105.8145446042635</v>
+        <v>40.798659669054423</v>
       </c>
       <c r="K6">
-        <v>79.935276245559962</v>
+        <v>37.567770674955057</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -801,25 +801,25 @@
         <v>53</v>
       </c>
       <c r="E7">
-        <v>46.692969058909142</v>
+        <v>51.506998782445343</v>
       </c>
       <c r="F7">
-        <v>116.5479771166687</v>
+        <v>31.013221938853881</v>
       </c>
       <c r="G7">
-        <v>62.128266222798082</v>
+        <v>15.039242092411341</v>
       </c>
       <c r="H7">
-        <v>83.071579442991251</v>
+        <v>112.3683868667672</v>
       </c>
       <c r="I7">
-        <v>62.453658241356209</v>
+        <v>70.290603355961963</v>
       </c>
       <c r="J7">
-        <v>60.604104619620557</v>
+        <v>38.98068095839087</v>
       </c>
       <c r="K7">
-        <v>49.13944012056065</v>
+        <v>30.624977339818059</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -836,25 +836,25 @@
         <v>53</v>
       </c>
       <c r="E8">
-        <v>64.258038276160718</v>
+        <v>32.907212889874003</v>
       </c>
       <c r="F8">
-        <v>348.78933033540642</v>
+        <v>44.007311234265671</v>
       </c>
       <c r="G8">
-        <v>124.6641489453164</v>
+        <v>29.525731639296431</v>
       </c>
       <c r="H8">
-        <v>256.59977237767458</v>
+        <v>200.34807185851921</v>
       </c>
       <c r="I8">
-        <v>196.00998019597051</v>
+        <v>151.23506671987991</v>
       </c>
       <c r="J8">
-        <v>87.334972857798448</v>
+        <v>43.803492382475497</v>
       </c>
       <c r="K8">
-        <v>61.979440492509909</v>
+        <v>38.347231498757623</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -871,25 +871,25 @@
         <v>53</v>
       </c>
       <c r="E9">
-        <v>16.782979683665889</v>
+        <v>14.20873096728908</v>
       </c>
       <c r="F9">
-        <v>331.90311785309967</v>
+        <v>70.999000754431563</v>
       </c>
       <c r="G9">
-        <v>276.19988501436029</v>
+        <v>60.910943747770837</v>
       </c>
       <c r="H9">
-        <v>356.81473790129269</v>
+        <v>277.23740433178318</v>
       </c>
       <c r="I9">
-        <v>332.36296563016361</v>
+        <v>250.42365888110689</v>
       </c>
       <c r="J9">
-        <v>85.902190135043213</v>
+        <v>51.374925454460332</v>
       </c>
       <c r="K9">
-        <v>80.799428757918093</v>
+        <v>48.816379746044483</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -906,25 +906,25 @@
         <v>53</v>
       </c>
       <c r="E10">
-        <v>19.798590561456681</v>
+        <v>15.46238560208633</v>
       </c>
       <c r="F10">
-        <v>371.19550032027371</v>
+        <v>60.339098188911947</v>
       </c>
       <c r="G10">
-        <v>297.70402302931211</v>
+        <v>51.00923415812089</v>
       </c>
       <c r="H10">
-        <v>301.66103724516148</v>
+        <v>239.86239640563741</v>
       </c>
       <c r="I10">
-        <v>266.35668462686942</v>
+        <v>220.26543551268719</v>
       </c>
       <c r="J10">
-        <v>89.166426161114174</v>
+        <v>48.663132806019121</v>
       </c>
       <c r="K10">
-        <v>82.844184475906303</v>
+        <v>46.013301307055947</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -941,25 +941,25 @@
         <v>53</v>
       </c>
       <c r="E11">
-        <v>38.130578467852033</v>
+        <v>16.411832206581099</v>
       </c>
       <c r="F11">
-        <v>181.5999451902612</v>
+        <v>49.157799875904637</v>
       </c>
       <c r="G11">
-        <v>112.3548355919124</v>
+        <v>41.090104243824243</v>
       </c>
       <c r="H11">
-        <v>215.64459104888479</v>
+        <v>183.6931820814309</v>
       </c>
       <c r="I11">
-        <v>166.23631257290211</v>
+        <v>173.1864449881964</v>
       </c>
       <c r="J11">
-        <v>70.259603879900823</v>
+        <v>45.449726237772992</v>
       </c>
       <c r="K11">
-        <v>59.868408789911442</v>
+        <v>42.813382433927529</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -976,25 +976,25 @@
         <v>53</v>
       </c>
       <c r="E12">
-        <v>64.2922818756944</v>
+        <v>39.212868578909678</v>
       </c>
       <c r="F12">
-        <v>105.914566381195</v>
+        <v>58.285956538337878</v>
       </c>
       <c r="G12">
-        <v>37.819674815977642</v>
+        <v>35.430361000999042</v>
       </c>
       <c r="H12">
-        <v>129.03873479900159</v>
+        <v>140.74705419030019</v>
       </c>
       <c r="I12">
-        <v>49.530712228028143</v>
+        <v>60.056861718908287</v>
       </c>
       <c r="J12">
-        <v>58.701926828996413</v>
+        <v>48.104802426056509</v>
       </c>
       <c r="K12">
-        <v>41.64597710296654</v>
+        <v>40.749815963352013</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1011,25 +1011,25 @@
         <v>53</v>
       </c>
       <c r="E13">
-        <v>49.7714845474339</v>
+        <v>41.913884604649127</v>
       </c>
       <c r="F13">
-        <v>95.073717450333746</v>
+        <v>35.323043215094849</v>
       </c>
       <c r="G13">
-        <v>47.754116860869907</v>
+        <v>20.517783643069649</v>
       </c>
       <c r="H13">
-        <v>66.909965270060525</v>
+        <v>128.6845194728142</v>
       </c>
       <c r="I13">
-        <v>54.72287219007557</v>
+        <v>84.53759045309657</v>
       </c>
       <c r="J13">
-        <v>56.626617134971923</v>
+        <v>40.708630919707929</v>
       </c>
       <c r="K13">
-        <v>45.012941959316208</v>
+        <v>33.965963706048342</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1046,25 +1046,25 @@
         <v>55</v>
       </c>
       <c r="E14">
-        <v>93.819444352344988</v>
+        <v>56.908582298039612</v>
       </c>
       <c r="F14">
-        <v>1655.3425890361091</v>
+        <v>50.156235249005213</v>
       </c>
       <c r="G14">
-        <v>102.3093698747098</v>
+        <v>21.613032834726731</v>
       </c>
       <c r="H14">
-        <v>225.89530262189399</v>
+        <v>176.4945997212221</v>
       </c>
       <c r="I14">
-        <v>88.550393890790474</v>
+        <v>105.4925795465774</v>
       </c>
       <c r="J14">
-        <v>146.7674523062278</v>
+        <v>45.755373284879028</v>
       </c>
       <c r="K14">
-        <v>58.028177280109773</v>
+        <v>34.55989096643345</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1081,25 +1081,25 @@
         <v>55</v>
       </c>
       <c r="E15">
-        <v>92.174402503265156</v>
+        <v>37.937392933442673</v>
       </c>
       <c r="F15">
-        <v>910.62949234265682</v>
+        <v>42.286736537827842</v>
       </c>
       <c r="G15">
-        <v>71.262198757296261</v>
+        <v>26.24425113874242</v>
       </c>
       <c r="H15">
-        <v>273.43810610319008</v>
+        <v>189.48268643674021</v>
       </c>
       <c r="I15">
-        <v>120.350280410557</v>
+        <v>132.80353196993789</v>
       </c>
       <c r="J15">
-        <v>120.2581069507638</v>
+        <v>43.225017974548443</v>
       </c>
       <c r="K15">
-        <v>51.438330588105401</v>
+        <v>36.870457024142638</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1116,25 +1116,25 @@
         <v>55</v>
       </c>
       <c r="E16">
-        <v>62.100955216144449</v>
+        <v>22.19590828064117</v>
       </c>
       <c r="F16">
-        <v>141.62933146699109</v>
+        <v>47.083242705783313</v>
       </c>
       <c r="G16">
-        <v>53.676163759750189</v>
+        <v>36.632689339255982</v>
       </c>
       <c r="H16">
-        <v>129.80882931880919</v>
+        <v>179.5020719387114</v>
       </c>
       <c r="I16">
-        <v>105.1699584565802</v>
+        <v>152.56637399362759</v>
       </c>
       <c r="J16">
-        <v>64.67228329920674</v>
+        <v>44.801158850937703</v>
       </c>
       <c r="K16">
-        <v>46.801626776263873</v>
+        <v>41.205645973726867</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1151,25 +1151,25 @@
         <v>55</v>
       </c>
       <c r="E17">
-        <v>48.606248878277427</v>
+        <v>10.85000400399494</v>
       </c>
       <c r="F17">
-        <v>216.53218017046751</v>
+        <v>46.867514027997828</v>
       </c>
       <c r="G17">
-        <v>111.28400977525</v>
+        <v>41.782386879387182</v>
       </c>
       <c r="H17">
-        <v>65.330135723868395</v>
+        <v>228.13238911595579</v>
       </c>
       <c r="I17">
-        <v>57.169614483467079</v>
+        <v>196.5199644269681</v>
       </c>
       <c r="J17">
-        <v>74.503145476317428</v>
+        <v>44.732629915448818</v>
       </c>
       <c r="K17">
-        <v>59.67760439037307</v>
+        <v>43.052483395789011</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1186,25 +1186,25 @@
         <v>55</v>
       </c>
       <c r="E18">
-        <v>53.481344455158819</v>
+        <v>45.632227647126108</v>
       </c>
       <c r="F18">
-        <v>454.23837294394269</v>
+        <v>60.479664961330627</v>
       </c>
       <c r="G18">
-        <v>211.3055840622838</v>
+        <v>32.88144656595707</v>
       </c>
       <c r="H18">
-        <v>80.50503647194391</v>
+        <v>280.87706066453421</v>
       </c>
       <c r="I18">
-        <v>48.131937476348178</v>
+        <v>177.17215067078951</v>
       </c>
       <c r="J18">
-        <v>95.373649001545516</v>
+        <v>48.700892261823732</v>
       </c>
       <c r="K18">
-        <v>73.898810957263251</v>
+        <v>39.748196763536107</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1221,25 +1221,25 @@
         <v>55</v>
       </c>
       <c r="E19">
-        <v>73.852381024239662</v>
+        <v>26.620982518278549</v>
       </c>
       <c r="F19">
-        <v>109.2958811455884</v>
+        <v>45.082693139764046</v>
       </c>
       <c r="G19">
-        <v>28.578270558148329</v>
+        <v>33.0812372802583</v>
       </c>
       <c r="H19">
-        <v>61.840047400137308</v>
+        <v>137.02500971645671</v>
       </c>
       <c r="I19">
-        <v>55.941140264164609</v>
+        <v>148.26966512678811</v>
       </c>
       <c r="J19">
-        <v>59.320079510329933</v>
+        <v>44.157425328980239</v>
       </c>
       <c r="K19">
-        <v>37.932585063330571</v>
+        <v>39.828538835426677</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1256,25 +1256,25 @@
         <v>55</v>
       </c>
       <c r="E20">
-        <v>67.477942960409095</v>
+        <v>49.218629530775573</v>
       </c>
       <c r="F20">
-        <v>1492.452374686</v>
+        <v>99.431201378689479</v>
       </c>
       <c r="G20">
-        <v>485.37621258410968</v>
+        <v>50.4925267341129</v>
       </c>
       <c r="H20">
-        <v>571.81214266746724</v>
+        <v>289.16117588118732</v>
       </c>
       <c r="I20">
-        <v>371.36128214094271</v>
+        <v>174.17558840584559</v>
       </c>
       <c r="J20">
-        <v>141.78619668133891</v>
+        <v>57.47884351988472</v>
       </c>
       <c r="K20">
-        <v>97.50494060096932</v>
+        <v>45.857406995106928</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1291,25 +1291,25 @@
         <v>55</v>
       </c>
       <c r="E21">
-        <v>76.289487160259227</v>
+        <v>33.932672333381667</v>
       </c>
       <c r="F21">
-        <v>445.61375559707921</v>
+        <v>135.98086550971141</v>
       </c>
       <c r="G21">
-        <v>105.65730673649649</v>
+        <v>89.838923980204598</v>
       </c>
       <c r="H21">
-        <v>98.664434173967678</v>
+        <v>323.98296791115229</v>
       </c>
       <c r="I21">
-        <v>92.108277807538258</v>
+        <v>226.16607862104919</v>
       </c>
       <c r="J21">
-        <v>94.766168522656528</v>
+        <v>63.800839451143801</v>
       </c>
       <c r="K21">
-        <v>58.654360566084421</v>
+        <v>55.567642655307182</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1326,25 +1326,25 @@
         <v>55</v>
       </c>
       <c r="E22">
-        <v>91.695690308523353</v>
+        <v>64.3963362305538</v>
       </c>
       <c r="F22">
-        <v>683.20710853637945</v>
+        <v>79.227728393878408</v>
       </c>
       <c r="G22">
-        <v>56.735634127043873</v>
+        <v>28.207974029526529</v>
       </c>
       <c r="H22">
-        <v>212.44301641870541</v>
+        <v>244.30389841725781</v>
       </c>
       <c r="I22">
-        <v>45.566453742420471</v>
+        <v>133.0795045471254</v>
       </c>
       <c r="J22">
-        <v>109.27427103980661</v>
+        <v>53.287604081561042</v>
       </c>
       <c r="K22">
-        <v>47.67445792372628</v>
+        <v>37.768037989671129</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1361,25 +1361,25 @@
         <v>55</v>
       </c>
       <c r="E23">
-        <v>38.096240548554469</v>
+        <v>51.987566204951158</v>
       </c>
       <c r="F23">
-        <v>261.71266351087439</v>
+        <v>69.678797340549963</v>
       </c>
       <c r="G23">
-        <v>162.00997767374281</v>
+        <v>33.454486442317801</v>
       </c>
       <c r="H23">
-        <v>117.5660058817037</v>
+        <v>186.70482137860481</v>
       </c>
       <c r="I23">
-        <v>113.3577606235111</v>
+        <v>124.57366436402459</v>
       </c>
       <c r="J23">
-        <v>79.361287526318677</v>
+        <v>51.054497723084218</v>
       </c>
       <c r="K23">
-        <v>67.636487640333684</v>
+        <v>39.977771531073238</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1396,25 +1396,25 @@
         <v>55</v>
       </c>
       <c r="E24">
-        <v>45.230720406375127</v>
+        <v>14.85721093342941</v>
       </c>
       <c r="F24">
-        <v>664.35772965388571</v>
+        <v>69.546058003967318</v>
       </c>
       <c r="G24">
-        <v>363.86394245599507</v>
+        <v>59.213453470432732</v>
       </c>
       <c r="H24">
-        <v>192.8806722017589</v>
+        <v>225.64381633985499</v>
       </c>
       <c r="I24">
-        <v>211.82986436417571</v>
+        <v>189.00282701240161</v>
       </c>
       <c r="J24">
-        <v>108.2599419775661</v>
+        <v>51.022057208546059</v>
       </c>
       <c r="K24">
-        <v>88.575470139826052</v>
+        <v>48.358622658476698</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1431,25 +1431,25 @@
         <v>56</v>
       </c>
       <c r="E25">
-        <v>70.6447382201262</v>
+        <v>99.256266958939051</v>
       </c>
       <c r="F25">
-        <v>1259.4564097850671</v>
+        <v>23.26234711057635</v>
       </c>
       <c r="G25">
-        <v>369.71672609580662</v>
+        <v>0.17300976158764361</v>
       </c>
       <c r="H25">
-        <v>344.30649825104229</v>
+        <v>43.942798334293578</v>
       </c>
       <c r="I25">
-        <v>116.7171756768338</v>
+        <v>1.399000326514338</v>
       </c>
       <c r="J25">
-        <v>133.98664303473191</v>
+        <v>35.417532668382641</v>
       </c>
       <c r="K25">
-        <v>89.047861057164226</v>
+        <v>6.9133837069368633</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1466,25 +1466,25 @@
         <v>56</v>
       </c>
       <c r="E26">
-        <v>85.557770134984509</v>
+        <v>38.445892173224607</v>
       </c>
       <c r="F26">
-        <v>228.74909867196291</v>
+        <v>44.877685892073238</v>
       </c>
       <c r="G26">
-        <v>33.036470644355958</v>
+        <v>27.62405916416833</v>
       </c>
       <c r="H26">
-        <v>69.57900007823676</v>
+        <v>126.6093505629066</v>
       </c>
       <c r="I26">
-        <v>29.036584641498759</v>
+        <v>117.74257059105371</v>
       </c>
       <c r="J26">
-        <v>75.878765469667528</v>
+        <v>44.090390374834243</v>
       </c>
       <c r="K26">
-        <v>39.810564955411962</v>
+        <v>37.505614986382028</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1501,25 +1501,25 @@
         <v>56</v>
       </c>
       <c r="E27">
-        <v>51.636509170254037</v>
+        <v>44.579100579797988</v>
       </c>
       <c r="F27">
-        <v>1217.3700404685419</v>
+        <v>71.019378893292327</v>
       </c>
       <c r="G27">
-        <v>588.76264788607784</v>
+        <v>39.359578545303712</v>
       </c>
       <c r="H27">
-        <v>121.1443426558302</v>
+        <v>159.00396804463901</v>
       </c>
       <c r="I27">
-        <v>81.455242330536365</v>
+        <v>106.37506891634609</v>
       </c>
       <c r="J27">
-        <v>132.47725754964341</v>
+        <v>51.379840196014683</v>
       </c>
       <c r="K27">
-        <v>103.9873575801937</v>
+        <v>42.203707625171212</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1536,25 +1536,25 @@
         <v>56</v>
       </c>
       <c r="E28">
-        <v>47.342351757140321</v>
+        <v>63.372544125728567</v>
       </c>
       <c r="F28">
-        <v>339.07616097574351</v>
+        <v>86.624910870800846</v>
       </c>
       <c r="G28">
-        <v>178.54953212199959</v>
+        <v>31.72850100532953</v>
       </c>
       <c r="H28">
-        <v>51.570382154048389</v>
+        <v>264.36351829310979</v>
       </c>
       <c r="I28">
-        <v>68.690323445556658</v>
+        <v>140.7188258688771</v>
       </c>
       <c r="J28">
-        <v>86.516620159299521</v>
+        <v>54.896930176931569</v>
       </c>
       <c r="K28">
-        <v>69.86398674056548</v>
+        <v>39.278085463409838</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1571,25 +1571,25 @@
         <v>56</v>
       </c>
       <c r="E29">
-        <v>41.694473051810853</v>
+        <v>53.904934897978883</v>
       </c>
       <c r="F29">
-        <v>83.755171769146997</v>
+        <v>41.656225301116912</v>
       </c>
       <c r="G29">
-        <v>48.833894246362107</v>
+        <v>19.201464171594431</v>
       </c>
       <c r="H29">
-        <v>62.710562998666873</v>
+        <v>132.87336673485331</v>
       </c>
       <c r="I29">
-        <v>30.373455772294601</v>
+        <v>82.284128214997949</v>
       </c>
       <c r="J29">
-        <v>54.283895249522331</v>
+        <v>43.009107500596109</v>
       </c>
       <c r="K29">
-        <v>45.349681926404493</v>
+        <v>33.223489223010048</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1606,25 +1606,25 @@
         <v>56</v>
       </c>
       <c r="E30">
-        <v>37.658796911087762</v>
+        <v>25.916015930797961</v>
       </c>
       <c r="F30">
-        <v>2261.6985047907842</v>
+        <v>58.567147021385288</v>
       </c>
       <c r="G30">
-        <v>1409.970058130514</v>
+        <v>43.388875869109206</v>
       </c>
       <c r="H30">
-        <v>303.17566359357829</v>
+        <v>141.08638408295499</v>
       </c>
       <c r="I30">
-        <v>268.08570305205342</v>
+        <v>99.728142132970063</v>
       </c>
       <c r="J30">
-        <v>162.85909965973289</v>
+        <v>48.182036115960543</v>
       </c>
       <c r="K30">
-        <v>139.124544660943</v>
+        <v>43.597333260925673</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1641,25 +1641,25 @@
         <v>56</v>
       </c>
       <c r="E31">
-        <v>84.890270395822824</v>
+        <v>41.701507620252869</v>
       </c>
       <c r="F31">
-        <v>89.276407493917674</v>
+        <v>39.671172056495301</v>
       </c>
       <c r="G31">
-        <v>13.48942377265432</v>
+        <v>23.12769521831229</v>
       </c>
       <c r="H31">
-        <v>44.830651106899971</v>
+        <v>105.7522445726559</v>
       </c>
       <c r="I31">
-        <v>32.003917907161501</v>
+        <v>89.242742497032054</v>
       </c>
       <c r="J31">
-        <v>55.451422868058778</v>
+        <v>42.314784789903477</v>
       </c>
       <c r="K31">
-        <v>29.534633908487351</v>
+        <v>35.349063377879737</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1676,25 +1676,25 @@
         <v>56</v>
       </c>
       <c r="E32">
-        <v>84.989313102083884</v>
+        <v>67.746457897149824</v>
       </c>
       <c r="F32">
-        <v>406.84623770064809</v>
+        <v>87.931449124427232</v>
       </c>
       <c r="G32">
-        <v>61.070414897195867</v>
+        <v>28.361006964993422</v>
       </c>
       <c r="H32">
-        <v>109.06553044863939</v>
+        <v>156.82761224216199</v>
       </c>
       <c r="I32">
-        <v>38.211599575683337</v>
+        <v>80.84578667841825</v>
       </c>
       <c r="J32">
-        <v>91.934226684535005</v>
+        <v>55.171552214988047</v>
       </c>
       <c r="K32">
-        <v>48.858944731180863</v>
+        <v>37.83621413804687</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1711,25 +1711,25 @@
         <v>56</v>
       </c>
       <c r="E33">
-        <v>89.342134588265409</v>
+        <v>48.098069625738219</v>
       </c>
       <c r="F33">
-        <v>138.79508940052321</v>
+        <v>75.496552532424971</v>
       </c>
       <c r="G33">
-        <v>14.792593826404451</v>
+        <v>39.184168130347167</v>
       </c>
       <c r="H33">
-        <v>73.887478226737485</v>
+        <v>214.34455943180069</v>
       </c>
       <c r="I33">
-        <v>35.526158133111998</v>
+        <v>128.9781430972715</v>
       </c>
       <c r="J33">
-        <v>64.237972658990643</v>
+        <v>52.437603180824517</v>
       </c>
       <c r="K33">
-        <v>30.45663393306021</v>
+        <v>42.140919058476292</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1746,25 +1746,25 @@
         <v>56</v>
       </c>
       <c r="E34">
-        <v>16.43309734471886</v>
+        <v>32.059227790113603</v>
       </c>
       <c r="F34">
-        <v>1190.650127546653</v>
+        <v>67.307904557621626</v>
       </c>
       <c r="G34">
-        <v>994.98943305189266</v>
+        <v>45.729510114741451</v>
       </c>
       <c r="H34">
-        <v>432.87723234443467</v>
+        <v>156.6070024732492</v>
       </c>
       <c r="I34">
-        <v>324.83807467847129</v>
+        <v>108.5115067010297</v>
       </c>
       <c r="J34">
-        <v>131.50083590874311</v>
+        <v>50.468742364218798</v>
       </c>
       <c r="K34">
-        <v>123.8625306047591</v>
+        <v>44.367603955186183</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1781,25 +1781,25 @@
         <v>57</v>
       </c>
       <c r="E35">
-        <v>91.563096573699042</v>
+        <v>16.243829860950871</v>
       </c>
       <c r="F35">
-        <v>741.84642640162713</v>
+        <v>59.101514344509468</v>
       </c>
       <c r="G35">
-        <v>62.588866566970111</v>
+        <v>49.501164909141878</v>
       </c>
       <c r="H35">
-        <v>507.77382885710091</v>
+        <v>193.67816444730059</v>
       </c>
       <c r="I35">
-        <v>83.721453314588302</v>
+        <v>214.27929464832681</v>
       </c>
       <c r="J35">
-        <v>112.3151812297756</v>
+        <v>48.328130507713993</v>
       </c>
       <c r="K35">
-        <v>49.260576283049218</v>
+        <v>45.555302238369443</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1816,25 +1816,25 @@
         <v>57</v>
       </c>
       <c r="E36">
-        <v>86.618424007386082</v>
+        <v>26.947428775084141</v>
       </c>
       <c r="F36">
-        <v>1040.405452242527</v>
+        <v>122.6504123560465</v>
       </c>
       <c r="G36">
-        <v>139.22264622313219</v>
+        <v>89.599279844053868</v>
       </c>
       <c r="H36">
-        <v>140.03070225322469</v>
+        <v>253.29903949969469</v>
       </c>
       <c r="I36">
-        <v>52.43313929901791</v>
+        <v>217.0138033373195</v>
       </c>
       <c r="J36">
-        <v>125.71911999068639</v>
+        <v>61.643903245610751</v>
       </c>
       <c r="K36">
-        <v>64.30386651131117</v>
+        <v>55.51819000827021</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -1851,25 +1851,25 @@
         <v>57</v>
       </c>
       <c r="E37">
-        <v>1.1600301411551299</v>
+        <v>56.855853656035457</v>
       </c>
       <c r="F37">
-        <v>3962.0542311588761</v>
+        <v>68.337823477534059</v>
       </c>
       <c r="G37">
-        <v>3916.09320786852</v>
+        <v>29.483770569427449</v>
       </c>
       <c r="H37">
-        <v>1643.1213828725461</v>
+        <v>132.0899681106668</v>
       </c>
       <c r="I37">
-        <v>1627.055614699135</v>
+        <v>110.30263797628611</v>
       </c>
       <c r="J37">
-        <v>196.32424281303031</v>
+        <v>50.724858020315217</v>
       </c>
       <c r="K37">
-        <v>195.56214819939331</v>
+        <v>38.329056914117302</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -1886,25 +1886,25 @@
         <v>57</v>
       </c>
       <c r="E38">
-        <v>2.3095127736262211</v>
+        <v>54.356084580069478</v>
       </c>
       <c r="F38">
-        <v>4735.3176133046554</v>
+        <v>73.343844551342912</v>
       </c>
       <c r="G38">
-        <v>4625.9548481536112</v>
+        <v>33.477002372740273</v>
       </c>
       <c r="H38">
-        <v>2931.4411096866502</v>
+        <v>189.61741126397109</v>
       </c>
       <c r="I38">
-        <v>2625.3556411110098</v>
+        <v>88.952220492831216</v>
       </c>
       <c r="J38">
-        <v>208.34519897052559</v>
+        <v>51.934387768299302</v>
       </c>
       <c r="K38">
-        <v>206.72877082441309</v>
+        <v>39.986738289130002</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -1921,25 +1921,25 @@
         <v>57</v>
       </c>
       <c r="E39">
-        <v>5.9425229620809557</v>
+        <v>53.579604398378791</v>
       </c>
       <c r="F39">
-        <v>2688.970876301169</v>
+        <v>36.868934853222157</v>
       </c>
       <c r="G39">
-        <v>2529.1781645333022</v>
+        <v>17.11470541296973</v>
       </c>
       <c r="H39">
-        <v>1468.2774745900881</v>
+        <v>82.235335958077599</v>
       </c>
       <c r="I39">
-        <v>1469.9756219598321</v>
+        <v>73.413404526495654</v>
       </c>
       <c r="J39">
-        <v>172.52915372572289</v>
+        <v>41.294035128104213</v>
       </c>
       <c r="K39">
-        <v>169.041602238325</v>
+        <v>31.973506584806021</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -1956,25 +1956,25 @@
         <v>57</v>
       </c>
       <c r="E40">
-        <v>2.8186289730177498</v>
+        <v>53.156327913339993</v>
       </c>
       <c r="F40">
-        <v>4976.2955252468737</v>
+        <v>90.683215287793686</v>
       </c>
       <c r="G40">
-        <v>4836.0322177892785</v>
+        <v>42.479348007054021</v>
       </c>
       <c r="H40">
-        <v>2432.5289764633089</v>
+        <v>212.10246199210999</v>
       </c>
       <c r="I40">
-        <v>2393.9033865182619</v>
+        <v>101.78035987296499</v>
       </c>
       <c r="J40">
-        <v>211.8210811949975</v>
+        <v>55.741172015102379</v>
       </c>
       <c r="K40">
-        <v>209.8119343411152</v>
+        <v>43.290546995431598</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -1991,25 +1991,25 @@
         <v>57</v>
       </c>
       <c r="E41">
-        <v>1.2233277363177559</v>
+        <v>20.016957783146339</v>
       </c>
       <c r="F41">
-        <v>3933.8031352102912</v>
+        <v>58.90750672179378</v>
       </c>
       <c r="G41">
-        <v>3885.6798303651258</v>
+        <v>47.116015970188229</v>
       </c>
       <c r="H41">
-        <v>1923.2067461272891</v>
+        <v>245.92405616973349</v>
       </c>
       <c r="I41">
-        <v>1700.9791291842109</v>
+        <v>218.04615700665639</v>
       </c>
       <c r="J41">
-        <v>195.85650479792019</v>
+        <v>48.275191628653367</v>
       </c>
       <c r="K41">
-        <v>195.0545701079902</v>
+        <v>44.811551364256573</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2026,25 +2026,25 @@
         <v>57</v>
       </c>
       <c r="E42">
-        <v>1.7421817029662889</v>
+        <v>46.029211177402132</v>
       </c>
       <c r="F42">
-        <v>5961.9651752234522</v>
+        <v>69.649228411229103</v>
       </c>
       <c r="G42">
-        <v>5858.0969088034872</v>
+        <v>37.590237982393298</v>
       </c>
       <c r="H42">
-        <v>2175.8977278345478</v>
+        <v>189.73007333980189</v>
       </c>
       <c r="I42">
-        <v>2024.70103153688</v>
+        <v>124.2551911452411</v>
       </c>
       <c r="J42">
-        <v>224.97293329154181</v>
+        <v>51.047274863885207</v>
       </c>
       <c r="K42">
-        <v>223.65879282047999</v>
+        <v>41.561589731248532</v>
       </c>
     </row>
   </sheetData>
